--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ret</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25903962908076</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H2">
-        <v>1.25903962908076</v>
+        <v>3.896708</v>
       </c>
       <c r="I2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="J2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.2647354108275</v>
+        <v>2.027884333333333</v>
       </c>
       <c r="N2">
-        <v>25.2647354108275</v>
+        <v>6.083653</v>
       </c>
       <c r="O2">
-        <v>0.9558812615120603</v>
+        <v>0.07019303724735296</v>
       </c>
       <c r="P2">
-        <v>0.9558812615120603</v>
+        <v>0.07019303724735297</v>
       </c>
       <c r="Q2">
-        <v>31.8093031004718</v>
+        <v>2.634024368258222</v>
       </c>
       <c r="R2">
-        <v>31.8093031004718</v>
+        <v>23.706219314324</v>
       </c>
       <c r="S2">
-        <v>0.7316673841752144</v>
+        <v>0.05051577763562097</v>
       </c>
       <c r="T2">
-        <v>0.7316673841752144</v>
+        <v>0.05051577763562099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25903962908076</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H3">
-        <v>1.25903962908076</v>
+        <v>3.896708</v>
       </c>
       <c r="I3">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="J3">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.16609489006415</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N3">
-        <v>1.16609489006415</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O3">
-        <v>0.04411873848793964</v>
+        <v>0.887159745112283</v>
       </c>
       <c r="P3">
-        <v>0.04411873848793964</v>
+        <v>0.887159745112283</v>
       </c>
       <c r="Q3">
-        <v>1.468159677859337</v>
+        <v>33.29105676007244</v>
       </c>
       <c r="R3">
-        <v>1.468159677859337</v>
+        <v>299.619510840652</v>
       </c>
       <c r="S3">
-        <v>0.03377013786369101</v>
+        <v>0.6384616789474558</v>
       </c>
       <c r="T3">
-        <v>0.03377013786369101</v>
+        <v>0.6384616789474559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.385823070786684</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H4">
-        <v>0.385823070786684</v>
+        <v>3.896708</v>
       </c>
       <c r="I4">
-        <v>0.2345624779610947</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="J4">
-        <v>0.2345624779610947</v>
+        <v>0.7196693520699017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.2647354108275</v>
+        <v>1.232082666666667</v>
       </c>
       <c r="N4">
-        <v>25.2647354108275</v>
+        <v>3.696248</v>
       </c>
       <c r="O4">
-        <v>0.9558812615120603</v>
+        <v>0.04264721764036409</v>
       </c>
       <c r="P4">
-        <v>0.9558812615120603</v>
+        <v>0.04264721764036408</v>
       </c>
       <c r="Q4">
-        <v>9.74771779881854</v>
+        <v>1.600355461287111</v>
       </c>
       <c r="R4">
-        <v>9.74771779881854</v>
+        <v>14.403199151584</v>
       </c>
       <c r="S4">
-        <v>0.224213877336846</v>
+        <v>0.0306918954868249</v>
       </c>
       <c r="T4">
-        <v>0.224213877336846</v>
+        <v>0.0306918954868249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5059576666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.517873</v>
+      </c>
+      <c r="I5">
+        <v>0.2803306479300983</v>
+      </c>
+      <c r="J5">
+        <v>0.2803306479300984</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.027884333333333</v>
+      </c>
+      <c r="N5">
+        <v>6.083653</v>
+      </c>
+      <c r="O5">
+        <v>0.07019303724735296</v>
+      </c>
+      <c r="P5">
+        <v>0.07019303724735297</v>
+      </c>
+      <c r="Q5">
+        <v>1.026023625563222</v>
+      </c>
+      <c r="R5">
+        <v>9.234212630069001</v>
+      </c>
+      <c r="S5">
+        <v>0.01967725961173198</v>
+      </c>
+      <c r="T5">
+        <v>0.01967725961173199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.385823070786684</v>
-      </c>
-      <c r="H5">
-        <v>0.385823070786684</v>
-      </c>
-      <c r="I5">
-        <v>0.2345624779610947</v>
-      </c>
-      <c r="J5">
-        <v>0.2345624779610947</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.16609489006415</v>
-      </c>
-      <c r="N5">
-        <v>1.16609489006415</v>
-      </c>
-      <c r="O5">
-        <v>0.04411873848793964</v>
-      </c>
-      <c r="P5">
-        <v>0.04411873848793964</v>
-      </c>
-      <c r="Q5">
-        <v>0.449906311313211</v>
-      </c>
-      <c r="R5">
-        <v>0.449906311313211</v>
-      </c>
-      <c r="S5">
-        <v>0.01034860062424864</v>
-      </c>
-      <c r="T5">
-        <v>0.01034860062424864</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5059576666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.517873</v>
+      </c>
+      <c r="I6">
+        <v>0.2803306479300983</v>
+      </c>
+      <c r="J6">
+        <v>0.2803306479300984</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>25.63013966666666</v>
+      </c>
+      <c r="N6">
+        <v>76.89041899999999</v>
+      </c>
+      <c r="O6">
+        <v>0.887159745112283</v>
+      </c>
+      <c r="P6">
+        <v>0.887159745112283</v>
+      </c>
+      <c r="Q6">
+        <v>12.96776566208744</v>
+      </c>
+      <c r="R6">
+        <v>116.709890958787</v>
+      </c>
+      <c r="S6">
+        <v>0.2486980661648272</v>
+      </c>
+      <c r="T6">
+        <v>0.2486980661648272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5059576666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.517873</v>
+      </c>
+      <c r="I7">
+        <v>0.2803306479300983</v>
+      </c>
+      <c r="J7">
+        <v>0.2803306479300984</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.232082666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.696248</v>
+      </c>
+      <c r="O7">
+        <v>0.04264721764036409</v>
+      </c>
+      <c r="P7">
+        <v>0.04264721764036408</v>
+      </c>
+      <c r="Q7">
+        <v>0.6233816711671111</v>
+      </c>
+      <c r="R7">
+        <v>5.610435040504</v>
+      </c>
+      <c r="S7">
+        <v>0.01195532215353918</v>
+      </c>
+      <c r="T7">
+        <v>0.01195532215353918</v>
       </c>
     </row>
   </sheetData>
